--- a/album2.xlsx
+++ b/album2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\o\git-repos\mtg-card-price-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D690EAB4-2D75-4C1F-A96E-BA76962E82A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429CCFC2-6772-45F8-86E7-92C1BA3266F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Restless Fortress</t>
+  </si>
+  <si>
+    <t>Scion of Draco</t>
+  </si>
+  <si>
+    <t>Modern Horizons 2</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,7 +139,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,10 +587,24 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <f>SUM(D2:D11)</f>
-        <v>19.150000000000002</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <f>SUM(D2:D12)</f>
+        <v>21.14</v>
       </c>
     </row>
   </sheetData>

--- a/album2.xlsx
+++ b/album2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\o\git-repos\mtg-card-price-updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429CCFC2-6772-45F8-86E7-92C1BA3266F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AAFE64-9B82-4E92-8BDF-8C795C1428BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -50,39 +50,21 @@
     <t>Price</t>
   </si>
   <si>
-    <t>As Foretold</t>
-  </si>
-  <si>
     <t>Enchanting Tales</t>
   </si>
   <si>
     <t>V.1</t>
   </si>
   <si>
-    <t>Lich-Knights' Conquest</t>
-  </si>
-  <si>
     <t>Wilds of Eldraine</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
-    <t>Goblin Rabblemaster</t>
-  </si>
-  <si>
-    <t>30th Anniversary Celebration</t>
-  </si>
-  <si>
-    <t>Utopia Sprawl</t>
-  </si>
-  <si>
     <t>Hardened Scales</t>
   </si>
   <si>
-    <t>Gruff Triplets</t>
-  </si>
-  <si>
     <t>Likeness Looter</t>
   </si>
   <si>
@@ -92,13 +74,103 @@
     <t>Eriette of the Charmed Apple</t>
   </si>
   <si>
-    <t>Restless Fortress</t>
-  </si>
-  <si>
     <t>Scion of Draco</t>
   </si>
   <si>
     <t>Modern Horizons 2</t>
+  </si>
+  <si>
+    <t>Ojer Taq, Deepest Foundation // Temple of Civilization</t>
+  </si>
+  <si>
+    <t>The Lost Caverns of Ixalan: Extras</t>
+  </si>
+  <si>
+    <t>Foil</t>
+  </si>
+  <si>
+    <t>Blazing Archon</t>
+  </si>
+  <si>
+    <t>Ravnica Remastered: Extras</t>
+  </si>
+  <si>
+    <t>Ojer Pakpatiq, Deepest Epoch // Temple of Cyclical Time</t>
+  </si>
+  <si>
+    <t>Cyclonic Rift</t>
+  </si>
+  <si>
+    <t>V.2</t>
+  </si>
+  <si>
+    <t>Profane Tutor</t>
+  </si>
+  <si>
+    <t>Stalactite Stalker</t>
+  </si>
+  <si>
+    <t>The Lost Caverns of Ixalan</t>
+  </si>
+  <si>
+    <t>Trumpeting Carnasaur</t>
+  </si>
+  <si>
+    <t>Kellan, the Fae-Blooded // Birthright Boon</t>
+  </si>
+  <si>
+    <t>Questing Druid</t>
+  </si>
+  <si>
+    <t>Molten Collapse</t>
+  </si>
+  <si>
+    <t>Pantlaza, Sun-Favored</t>
+  </si>
+  <si>
+    <t>Commander: The Lost Caverns of Ixalan: Extras</t>
+  </si>
+  <si>
+    <t>V.1 Foil</t>
+  </si>
+  <si>
+    <t>Niv-Mizzet, the Firemind</t>
+  </si>
+  <si>
+    <t>Release Promos</t>
+  </si>
+  <si>
+    <t>Mayhem Devil</t>
+  </si>
+  <si>
+    <t>Ravnica Remastered</t>
+  </si>
+  <si>
+    <t>Lavinia, Azorius Renegade</t>
+  </si>
+  <si>
+    <t>Roaming Throne</t>
+  </si>
+  <si>
+    <t>The Lost Caverns of Ixalan: Promos</t>
+  </si>
+  <si>
+    <t>Urza's Incubator</t>
+  </si>
+  <si>
+    <t>Dominaria Remastered: Extras</t>
+  </si>
+  <si>
+    <t>Cloudstone Curio</t>
+  </si>
+  <si>
+    <t>V.2 Foil</t>
+  </si>
+  <si>
+    <t>Plaza of Heroes</t>
+  </si>
+  <si>
+    <t>Dominaria United</t>
   </si>
 </sst>
 </file>
@@ -420,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -449,162 +521,330 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.87</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.65</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>7.22</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>1.29</v>
+        <v>38.53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>0.56999999999999995</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>2.98</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>0.96</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>1.99</v>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="1">
-        <f>SUM(D2:D12)</f>
-        <v>21.14</v>
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1">
+        <v>25.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
+        <f>SUM(D2:D24)</f>
+        <v>161.85</v>
       </c>
     </row>
   </sheetData>
